--- a/Documentacion/Fase de construcción/Semana 12/Gestion de proyecto/GPRACG2.xlsx
+++ b/Documentacion/Fase de construcción/Semana 12/Gestion de proyecto/GPRACG2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="1 _ Alejandro Garcia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="201">
   <si>
     <t>Javier Madeiro</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Total Línea Gestión de Proyecto</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Observaciones</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Descripción Actividad</t>
   </si>
   <si>
-    <t>Alejandro Garcia</t>
-  </si>
-  <si>
     <t>Total Línea Gestión de Configuración y Control de Cambios</t>
   </si>
   <si>
@@ -148,12 +142,6 @@
     <t>Vicente Acosta</t>
   </si>
   <si>
-    <t>Federico Trindad</t>
-  </si>
-  <si>
-    <t>Total Análistas</t>
-  </si>
-  <si>
     <t>Total Asistente de Verificación</t>
   </si>
   <si>
@@ -259,9 +247,6 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>RTF de Codigo</t>
-  </si>
-  <si>
     <t>26/10/2010</t>
   </si>
   <si>
@@ -277,9 +262,6 @@
     <t>R5</t>
   </si>
   <si>
-    <t>Reunion con el cliente</t>
-  </si>
-  <si>
     <t>V3</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
     <t>Testeo de la funcionalidad del tiempo</t>
   </si>
   <si>
-    <t xml:space="preserve">Con Martín integramos cambios y se preparato el ambiente para la demo con Marcelo </t>
-  </si>
-  <si>
     <t>29/10/2010</t>
   </si>
   <si>
@@ -343,30 +322,18 @@
     <t>31/10/2010</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementacion del Gran sospechoso </t>
-  </si>
-  <si>
     <t>Subir cosas a la cloud, actualizar database</t>
   </si>
   <si>
     <t>28/10/2010</t>
   </si>
   <si>
-    <t>Implementacion</t>
-  </si>
-  <si>
     <t>Página de Administración, y depuración de pistas</t>
   </si>
   <si>
     <t>RTF del código</t>
   </si>
   <si>
-    <t>Implentacion y correccion de warning´s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implentación </t>
-  </si>
-  <si>
     <t>24/10/10</t>
   </si>
   <si>
@@ -415,15 +382,6 @@
     <t>Revisión de entregables y del juego. Creación del informe semanal.</t>
   </si>
   <si>
-    <t>Retoque de imagenes y botones</t>
-  </si>
-  <si>
-    <t>Reunion con implementadores</t>
-  </si>
-  <si>
-    <t>Intentando levantar localmente + edicion de imagenes</t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
@@ -460,27 +418,18 @@
     <t>Jornada de implementación, reunida con Lety para verificar el GUI y armar animación inicial y final.</t>
   </si>
   <si>
-    <t>Implementaciòn y diseño</t>
-  </si>
-  <si>
     <t>Login. Cambios sobre pantallas, arreglo errores</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>Reuniòn</t>
-  </si>
-  <si>
     <t>Reunión con José para definir y dividir tareas que restaban realizar de la UI.</t>
   </si>
   <si>
     <t>Comienzo animaciones, cambios sobre pantallas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pantalla Options, volumen con slider, cambio lenguaje, vibraciòn. </t>
-  </si>
-  <si>
     <t>Preparación   reunión RTF</t>
   </si>
   <si>
@@ -529,9 +478,6 @@
     <t>Documentación técnica de la versión</t>
   </si>
   <si>
-    <t xml:space="preserve">Con Diego integramos cambios y se preparato el ambiente para la demo con Marcelo </t>
-  </si>
-  <si>
     <t>I10</t>
   </si>
   <si>
@@ -562,15 +508,9 @@
     <t>Implementando gran sospechoso y cosas q quedaban de multiusuario</t>
   </si>
   <si>
-    <t>Tabla esfuerzo areas / consolidado</t>
-  </si>
-  <si>
     <t>Horas realizadas consolidado</t>
   </si>
   <si>
-    <t>Analisis</t>
-  </si>
-  <si>
     <t>Diseño</t>
   </si>
   <si>
@@ -644,6 +584,57 @@
   </si>
   <si>
     <t>Esfuerzo estimado consolidado</t>
+  </si>
+  <si>
+    <t>Alejandro García</t>
+  </si>
+  <si>
+    <t>RTF de Código</t>
+  </si>
+  <si>
+    <t>Reunión con el cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con Martín integramos cambios y se preparo el ambiente para la demo con Marcelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación del Gran sospechoso </t>
+  </si>
+  <si>
+    <t>Implantación y corrección de warning´s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implantación </t>
+  </si>
+  <si>
+    <t>Retoque de imágenes y botones</t>
+  </si>
+  <si>
+    <t>Reunión con implementadores</t>
+  </si>
+  <si>
+    <t>Intentando levantar localmente + edición de imágenes</t>
+  </si>
+  <si>
+    <t>Implementación y diseño</t>
+  </si>
+  <si>
+    <t>Reunión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla Options, volumen con slider, cambio lenguaje, vibración. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con Diego integramos cambios y se preparo el ambiente para la demo con Marcelo </t>
+  </si>
+  <si>
+    <t>Tabla esfuerzo áreas / consolidado</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Total Analistas</t>
   </si>
 </sst>
 </file>
@@ -817,14 +808,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -841,9 +829,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -928,6 +913,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +995,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1223,24 +1211,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="79608064"/>
-        <c:axId val="79765504"/>
+        <c:axId val="68474368"/>
+        <c:axId val="68475904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79608064"/>
+        <c:axId val="68474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79765504"/>
+        <c:crossAx val="68475904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79765504"/>
+        <c:axId val="68475904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1236,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79608064"/>
+        <c:crossAx val="68474368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1263,7 +1251,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1271,7 +1259,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1279,7 +1267,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1495,24 +1483,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="79777792"/>
-        <c:axId val="79779328"/>
+        <c:axId val="68754432"/>
+        <c:axId val="68756224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79777792"/>
+        <c:axId val="68754432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79779328"/>
+        <c:crossAx val="68756224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79779328"/>
+        <c:axId val="68756224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,7 +1508,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79777792"/>
+        <c:crossAx val="68754432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1535,7 +1523,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1543,7 +1531,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1551,7 +1539,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1663,24 +1651,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="79726080"/>
-        <c:axId val="79727616"/>
+        <c:axId val="68792704"/>
+        <c:axId val="68794240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79726080"/>
+        <c:axId val="68792704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79727616"/>
+        <c:crossAx val="68794240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79727616"/>
+        <c:axId val="68794240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,7 +1676,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79726080"/>
+        <c:crossAx val="68792704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1703,7 +1691,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1711,7 +1699,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1719,7 +1707,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1834,24 +1822,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="103290368"/>
-        <c:axId val="103291904"/>
+        <c:axId val="74790784"/>
+        <c:axId val="74792320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103290368"/>
+        <c:axId val="74790784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103291904"/>
+        <c:crossAx val="74792320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103291904"/>
+        <c:axId val="74792320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +1847,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103290368"/>
+        <c:crossAx val="74790784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1874,7 +1862,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1882,7 +1870,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1890,7 +1878,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2008,7 +1996,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2016,7 +2004,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2024,7 +2012,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2142,7 +2130,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2150,7 +2138,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2321,15 +2309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3306,293 +3294,291 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="70" customWidth="1"/>
     <col min="6" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D6" s="16">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="18">
+      <c r="C7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="18">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="C8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="16">
+      <c r="C9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D10" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A11" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="18">
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D12" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>3</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3607,7 +3593,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3615,7 +3601,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -3624,338 +3610,338 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="16">
         <v>0.5</v>
       </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A13" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="H6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="D16" s="14">
         <v>0.5</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A17" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A18" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1</v>
-      </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3970,7 +3956,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3978,259 +3964,259 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="16">
         <v>0.5</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="18">
+      <c r="B8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="16">
         <v>2.5</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>99</v>
+      <c r="E8" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="16">
         <v>9</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>99</v>
+      <c r="E9" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A30" s="29"/>
+      <c r="A30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="23">
+        <v>31</v>
+      </c>
+      <c r="D31" s="21">
         <f>SUM(D4:D30)</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4245,7 +4231,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4253,7 +4239,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="52.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -4262,248 +4248,248 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" s="27" customFormat="1">
+      <c r="A5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="H6" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="16">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" s="29" customFormat="1">
-      <c r="A5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="H6" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="18">
-        <v>10</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D28" s="16"/>
+      <c r="E10" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="3:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>14.5</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4517,8 +4503,8 @@
   <sheetPr codeName="Hoja13"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:E45"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4532,635 +4518,635 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>177</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="35">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="33">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"R*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"R*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"R*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"R*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"R*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"R*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"R*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"R*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"R*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"R*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"R*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"R*")</f>
         <v>3</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="C7" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="34">
         <v>85.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="A8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"D*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"D*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"D*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"D*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"D*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"D*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"D*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"D*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"D*")</f>
         <v>5</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="36">
+      <c r="C8" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="34">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"I*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"I*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"I*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"I*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"I*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"I*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"I*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"I*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"I*")</f>
         <v>96.5</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="36">
+      <c r="C9" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="34">
         <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"Q*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"Q*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"Q*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"Q*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"Q*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"Q*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"Q*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"Q*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"Q*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"Q*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"Q*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"Q*")</f>
         <v>15</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="C10" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="34">
         <v>157.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="25">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"C*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"C*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"C*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"C*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"C*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"C*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"C*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"C*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"C*")</f>
         <v>3.5</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="36">
+      <c r="C11" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="34">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"G*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"G*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"G*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"G*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"G*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"G*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"G*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"G*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"G*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"G*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"G*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"G*")</f>
         <v>5.5</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="36">
+      <c r="C12" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="34">
         <v>349.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="25">
+      <c r="A13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"V*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"V*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"V*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"V*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"V*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"V*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"V*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"V*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"V*")</f>
         <v>16</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="36">
+      <c r="C13" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="34">
         <v>170.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="25">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"U*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"U*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"U*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"U*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"U*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"U*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"U*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"U*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"U*")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="36">
+      <c r="C14" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="25">
+      <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"P*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"P*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"P*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"P*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"P*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"P*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"P*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"P*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"P*")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="36">
+      <c r="C15" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="A16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="24">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"E*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"E*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"E*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"E*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"E*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"E*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"E*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"E*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"E*")</f>
         <v>10.5</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="36">
+      <c r="C16" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="34">
         <v>591.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>189</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="24">
+      <c r="A19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="22">
         <f xml:space="preserve"> SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!F5:'2 _ Diego Ricca'!F28,"Si") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!F5:'7 _ José Cordero'!F28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!F5:'9 _ Leticia Vilariño'!F28,D5) + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!F5:'11 _ Martín Taruselli'!F28,D5)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="36">
+      <c r="C19" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="34">
         <v>219.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="36">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="25">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="23">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!F5:'10 _ Marcos Sander'!F28,D5)</f>
         <v>8.5</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="36">
+      <c r="C21" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="34">
         <v>132.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="25">
+      <c r="A22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="23">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!H5:'10 _ Marcos Sander'!H28,D5)</f>
         <v>4</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="36">
+      <c r="C22" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="25">
+      <c r="A23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="23">
         <f xml:space="preserve"> SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!G5:'2 _ Diego Ricca'!G28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!G5:'3 _ Federico Andrade'!G28,D5) + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!G5:'4 _ Federico Trinidad'!G28,D5) + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!G5:'5 _ Ignacio Infante'!G28,D5) + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!G5:'7 _ José Cordero'!G28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!H5:'9 _ Leticia Vilariño'!H28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!G5:'9 _ Leticia Vilariño'!G28,D5) + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!G5:'11 _ Martín Taruselli'!G28,D5) + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!H5:'12 _ Vicente Acosta'!H28,D5)</f>
         <v>102</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="36">
+      <c r="C23" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="34">
         <v>829</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="25">
+      <c r="A24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="23">
         <f xml:space="preserve"> SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!F5:'3 _ Federico Andrade'!F28,D5) + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!F5:'4 _ Federico Trinidad'!F28,D5) + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!F5:'5 _ Ignacio Infante'!F28,D5) + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!G5:'12 _ Vicente Acosta'!G28,D5)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="36">
+      <c r="C24" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="34">
         <v>341.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="25">
+      <c r="A25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="23">
         <f xml:space="preserve"> SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!F5:'6 _ Javier Madeiro'!F28,D5)</f>
         <v>12.5</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="36">
+      <c r="C25" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="34">
         <v>171.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <f xml:space="preserve"> SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!F5:'12 _ Vicente Acosta'!F28,D5)</f>
         <v>3</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="36">
+      <c r="C26" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="34">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="25">
+      <c r="A27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!F5:'1 _ Alejandro Garcia'!F28,D5) + SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!G5:'1 _ Alejandro Garcia'!G28,D5)</f>
         <v>13</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="36">
+      <c r="C27" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="34">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="25">
+      <c r="A28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="23">
         <f xml:space="preserve"> SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!G5:'6 _ Javier Madeiro'!G28,D5) + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!H5:'7 _ José Cordero'!H28,D5) + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!G5:'8 _ Juan Ghiringhelli'!G28,D5) + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!G5:'10 _ Marcos Sander'!G28,D5)</f>
         <v>6</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="36">
+      <c r="C28" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="34">
         <v>40.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="25">
+      <c r="A29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="23">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!F5:'8 _ Juan Ghiringhelli'!F28,D5)</f>
         <v>6</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="36">
+      <c r="C29" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="34">
         <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="25">
+      <c r="A30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="23">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!H5:'8 _ Juan Ghiringhelli'!H28,D5)</f>
         <v>2</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="36">
+      <c r="C30" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>189</v>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="24">
+      <c r="A34" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="22">
         <f>SUM( '1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28)</f>
         <v>13</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="36">
+      <c r="C34" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="34">
         <v>180</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="34">
         <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="25">
+      <c r="A35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="23">
         <f>SUM( '2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28)</f>
         <v>19</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="36">
+      <c r="C35" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="34">
         <v>180</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="34">
         <v>208.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="25">
+      <c r="A36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="23">
         <f>SUM( '3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28)</f>
         <v>14</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="36">
+      <c r="C36" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="34">
         <v>180</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="34">
         <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="25">
+      <c r="A37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="23">
         <f>SUM( '4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28)</f>
         <v>8</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="36">
+      <c r="C37" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="34">
         <v>180</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="34">
         <v>190.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="23">
         <f>SUM( '5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28)</f>
         <v>12.5</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="34">
         <v>180</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="34">
         <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="23">
         <f>SUM( '6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28)</f>
         <v>12.5</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="34">
         <v>180</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="34">
         <v>193.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="25">
+      <c r="A40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="23">
         <f>SUM( '7 _ José Cordero'!D5:'7 _ José Cordero'!D28)</f>
         <v>9.5</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="36">
+      <c r="C40" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="34">
         <v>180</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="34">
         <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="25">
+      <c r="A41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="23">
         <f>SUM( '8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28)</f>
         <v>14</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="36">
+      <c r="C41" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="34">
         <v>180</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="34">
         <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="25">
+      <c r="A42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="23">
         <f>SUM( '9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28)</f>
         <v>15</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="36">
+      <c r="C42" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="34">
         <v>180</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="34">
         <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="25">
+      <c r="A43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="23">
         <f>SUM( '10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28)</f>
         <v>12.5</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="36">
+      <c r="C43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="34">
         <v>180</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="34">
         <v>181.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="25">
+      <c r="A44" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="23">
         <f>SUM( '11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28)</f>
         <v>16.5</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="36">
+      <c r="C44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="34">
         <v>180</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="34">
         <v>200.5</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="26">
+      <c r="A45" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="24">
         <f>SUM( '12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28)</f>
         <v>14.5</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="36">
+      <c r="C45" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="34">
         <v>180</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="34">
         <v>190</v>
       </c>
     </row>
@@ -5192,7 +5178,7 @@
   <sheetPr codeName="Hoja14"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5213,7 +5199,7 @@
   <sheetPr codeName="Hoja15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5234,8 +5220,8 @@
   <sheetPr codeName="Hoja16"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5251,7 +5237,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5259,291 +5245,291 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="50.140625" customWidth="1"/>
     <col min="6" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="18">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="B9" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="C10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="16">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>99</v>
+      <c r="E10" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="18">
+        <v>31</v>
+      </c>
+      <c r="D29" s="16">
         <f>SUM(D4:D28)</f>
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5557,8 +5543,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C37:C38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5566,7 +5552,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="19" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10.85546875" customWidth="1"/>
@@ -5574,205 +5560,205 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="16">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="16">
         <v>5</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="18">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="A7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="16">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="27"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="27"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="27"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="27"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="27"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="27"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="27"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="27"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="27"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="27"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="27"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="27"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="27"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="27"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="27"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="27"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="27"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="27"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="27"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="27"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="23">
+        <v>31</v>
+      </c>
+      <c r="D30" s="21">
         <f>SUM(D5:D29)</f>
         <v>14</v>
       </c>
@@ -5790,7 +5776,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5798,7 +5784,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10.85546875" customWidth="1"/>
@@ -5806,169 +5792,169 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="16">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5983,7 +5969,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5991,7 +5977,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -6001,226 +5987,226 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="16">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="A8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="16">
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6231,7 +6217,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6239,7 +6225,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -6248,247 +6234,247 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="16">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="18">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="E10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="18">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>12.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6502,8 +6488,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6511,7 +6497,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
@@ -6521,198 +6507,198 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="31"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="A6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="16">
         <v>2.5</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="A7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6727,7 +6713,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6735,7 +6721,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -6744,248 +6730,248 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="A6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>132</v>
+      <c r="E6" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="A7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>135</v>
+      <c r="E7" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="A8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>138</v>
+      <c r="E8" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="A9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="16">
         <v>6</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>141</v>
+      <c r="E9" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7000,7 +6986,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -7008,234 +6994,234 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="14" customWidth="1"/>
     <col min="5" max="5" width="70.42578125" customWidth="1"/>
     <col min="6" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8">
+        <v>12</v>
+      </c>
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="A6" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>146</v>
+      <c r="E6" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="16">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>147</v>
+      <c r="E7" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>148</v>
+      <c r="E8" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="23">
+        <v>31</v>
+      </c>
+      <c r="D30" s="21">
         <f>SUM(D5:D29)</f>
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D31" s="19"/>
+      <c r="D31" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
